--- a/dados_climaticos_weather.xlsx
+++ b/dados_climaticos_weather.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,16 +470,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45558</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -485,19 +487,21 @@
           <t>Limpo</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45558</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>13</v>
@@ -509,21 +513,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -535,24 +539,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -561,35 +567,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Manaus</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>31</v>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Limpo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Manaus</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>

--- a/dados_climaticos_weather.xlsx
+++ b/dados_climaticos_weather.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45558</v>
+        <v>45555</v>
       </c>
       <c r="B2" t="n">
         <v>27</v>
@@ -489,13 +489,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45558</v>
+        <v>45556</v>
       </c>
       <c r="B3" t="n">
         <v>28</v>
@@ -518,13 +518,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45557</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>32</v>
@@ -544,21 +542,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45558</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>32</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D5" t="n">
+        <v>13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -566,6 +560,182 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45556</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Manaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>

--- a/dados_climaticos_weather.xlsx
+++ b/dados_climaticos_weather.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,17 +725,43 @@
       <c r="C12" t="n">
         <v>27</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Limpo</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Limpo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
